--- a/proj2/Song calcs.xlsx
+++ b/proj2/Song calcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>A4</t>
   </si>
@@ -1037,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1114,15 +1114,15 @@
         <v>440</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D19" si="0">B4/2</f>
+        <f t="shared" ref="D4:D6" si="0">B4/2</f>
         <v>0.5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E28" si="1">256-ROUND($D$1/C4/2/20,0)</f>
+        <f t="shared" ref="E4:E6" si="1">256-ROUND($D$1/C4/2/20,0)</f>
         <v>47</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F28" si="2">ROUND(D4*$D$1/(C4/2)/150,0)</f>
+        <f t="shared" ref="F4:F6" si="2">ROUND(D4*$D$1/(C4/2)/150,0)</f>
         <v>56</v>
       </c>
     </row>
@@ -1174,48 +1174,48 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7" si="3">B7/2</f>
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" ref="E7" si="4">256-ROUND($D$1/C7/2/20,0)</f>
+        <v>47</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f t="shared" ref="F7" si="5">ROUND(D7*$D$1/(C7/2)/150,0)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>B8/2</f>
         <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f>256-ROUND($D$1/C8/2/20,0)</f>
+        <v>21</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>ROUND(D8*$D$1/(C8/2)/150,0)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1223,22 +1223,22 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>494</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f>B9/2</f>
+        <v>1</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>256-ROUND($D$1/C9/2/20,0)</f>
         <v>69</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>ROUND(D9*$D$1/(C9/2)/150,0)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1252,15 +1252,15 @@
         <v>494</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>B10/2</f>
         <v>0.25</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>256-ROUND($D$1/C10/2/20,0)</f>
         <v>69</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f>ROUND(D10*$D$1/(C10/2)/150,0)</f>
         <v>25</v>
       </c>
     </row>
@@ -1275,15 +1275,15 @@
         <v>494</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>B11/2</f>
         <v>0.25</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f>256-ROUND($D$1/C11/2/20,0)</f>
         <v>69</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f>ROUND(D11*$D$1/(C11/2)/150,0)</f>
         <v>25</v>
       </c>
     </row>
@@ -1298,39 +1298,39 @@
         <v>494</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>B12/2</f>
         <v>0.25</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>256-ROUND($D$1/C12/2/20,0)</f>
         <v>69</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f>ROUND(D12*$D$1/(C12/2)/150,0)</f>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>B13/2</f>
         <v>0.25</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f>256-ROUND($D$1/C13/2/20,0)</f>
+        <v>69</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>ROUND(D13*$D$1/(C13/2)/150,0)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1344,15 +1344,15 @@
         <v>440</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>B14/2</f>
         <v>0.25</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f>256-ROUND($D$1/C14/2/20,0)</f>
         <v>47</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f>ROUND(D14*$D$1/(C14/2)/150,0)</f>
         <v>28</v>
       </c>
     </row>
@@ -1367,15 +1367,15 @@
         <v>440</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>B15/2</f>
         <v>0.25</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f>256-ROUND($D$1/C15/2/20,0)</f>
         <v>47</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f>ROUND(D15*$D$1/(C15/2)/150,0)</f>
         <v>28</v>
       </c>
     </row>
@@ -1390,91 +1390,114 @@
         <v>440</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>B16/2</f>
         <v>0.25</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f>256-ROUND($D$1/C16/2/20,0)</f>
         <v>47</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>ROUND(D16*$D$1/(C16/2)/150,0)</f>
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>B17/2</f>
+        <v>0.25</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f>256-ROUND($D$1/C17/2/20,0)</f>
+        <v>47</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>ROUND(D17*$D$1/(C17/2)/150,0)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>B18/2</f>
         <v>0.5</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f>256-ROUND($D$1/C18/2/20,0)</f>
+        <v>69</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f>ROUND(D18*$D$1/(C18/2)/150,0)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>440</v>
+      </c>
+      <c r="D19">
+        <f>B19/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <f>256-ROUND($D$1/C19/2/20,0)</f>
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <f>ROUND(D19*$D$1/(C19/2)/150,0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>392</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
+      <c r="D20">
+        <f>B20/2</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>256-ROUND($D$1/C20/2/20,0)</f>
         <v>21</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
+      <c r="F20">
+        <f>ROUND(D20*$D$1/(C20/2)/150,0)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="D20">
-        <f>SUM(D3:D19)</f>
-        <v>8</v>
+    <row r="21" spans="1:6">
+      <c r="D21">
+        <f>SUM(D3:D20)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/proj2/Song calcs.xlsx
+++ b/proj2/Song calcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
   <si>
     <t>A4</t>
   </si>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,131 +1206,131 @@
         <v>392</v>
       </c>
       <c r="D8">
-        <f>B8/2</f>
+        <f t="shared" ref="D8:D20" si="6">B8/2</f>
         <v>1</v>
       </c>
       <c r="E8">
-        <f>256-ROUND($D$1/C8/2/20,0)</f>
+        <f t="shared" ref="E8:E20" si="7">256-ROUND($D$1/C8/2/20,0)</f>
         <v>21</v>
       </c>
       <c r="F8">
-        <f>ROUND(D8*$D$1/(C8/2)/150,0)</f>
+        <f t="shared" ref="F8:F20" si="8">ROUND(D8*$D$1/(C8/2)/150,0)</f>
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="D9">
-        <f>B9/2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.25</v>
       </c>
       <c r="E9">
-        <f>256-ROUND($D$1/C9/2/20,0)</f>
-        <v>69</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="F9">
-        <f>ROUND(D9*$D$1/(C9/2)/150,0)</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="D10">
-        <f>B10/2</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E10">
-        <f>256-ROUND($D$1/C10/2/20,0)</f>
-        <v>69</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="F10">
-        <f>ROUND(D10*$D$1/(C10/2)/150,0)</f>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="D11">
-        <f>B11/2</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E11">
-        <f>256-ROUND($D$1/C11/2/20,0)</f>
-        <v>69</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="F11">
-        <f>ROUND(D11*$D$1/(C11/2)/150,0)</f>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0.5</v>
       </c>
       <c r="C12">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="D12">
-        <f>B12/2</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E12">
-        <f>256-ROUND($D$1/C12/2/20,0)</f>
-        <v>69</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="F12">
-        <f>ROUND(D12*$D$1/(C12/2)/150,0)</f>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="D13">
-        <f>B13/2</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E13">
-        <f>256-ROUND($D$1/C13/2/20,0)</f>
-        <v>69</v>
+        <f t="shared" si="7"/>
+        <v>47</v>
       </c>
       <c r="F13">
-        <f>ROUND(D13*$D$1/(C13/2)/150,0)</f>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1344,15 +1344,15 @@
         <v>440</v>
       </c>
       <c r="D14">
-        <f>B14/2</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E14">
-        <f>256-ROUND($D$1/C14/2/20,0)</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="F14">
-        <f>ROUND(D14*$D$1/(C14/2)/150,0)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -1367,15 +1367,15 @@
         <v>440</v>
       </c>
       <c r="D15">
-        <f>B15/2</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E15">
-        <f>256-ROUND($D$1/C15/2/20,0)</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="F15">
-        <f>ROUND(D15*$D$1/(C15/2)/150,0)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -1390,114 +1390,91 @@
         <v>440</v>
       </c>
       <c r="D16">
-        <f>B16/2</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E16">
-        <f>256-ROUND($D$1/C16/2/20,0)</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="F16">
-        <f>ROUND(D16*$D$1/(C16/2)/150,0)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="D17">
-        <f>B17/2</f>
-        <v>0.25</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="E17">
-        <f>256-ROUND($D$1/C17/2/20,0)</f>
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>69</v>
       </c>
       <c r="F17">
-        <f>ROUND(D17*$D$1/(C17/2)/150,0)</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="D18">
-        <f>B18/2</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="E18">
-        <f>256-ROUND($D$1/C18/2/20,0)</f>
-        <v>69</v>
+        <f t="shared" si="7"/>
+        <v>47</v>
       </c>
       <c r="F18">
-        <f>ROUND(D18*$D$1/(C18/2)/150,0)</f>
-        <v>50</v>
+        <f t="shared" si="8"/>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="D19">
-        <f>B19/2</f>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E19">
-        <f>256-ROUND($D$1/C19/2/20,0)</f>
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="F19">
-        <f>ROUND(D19*$D$1/(C19/2)/150,0)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>392</v>
-      </c>
-      <c r="D20">
-        <f>B20/2</f>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f>256-ROUND($D$1/C20/2/20,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F20">
-        <f>ROUND(D20*$D$1/(C20/2)/150,0)</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="D21">
         <f>SUM(D3:D20)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
